--- a/artfynd/A 10133-2023.xlsx
+++ b/artfynd/A 10133-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>100083016</v>
+        <v>100083020</v>
       </c>
       <c r="B2" t="n">
-        <v>73693</v>
+        <v>77506</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>470498.0163710138</v>
+        <v>470032.0470633581</v>
       </c>
       <c r="R2" t="n">
-        <v>6922417.670698783</v>
+        <v>6922493.153876506</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>100083018</v>
+        <v>100083016</v>
       </c>
       <c r="B3" t="n">
-        <v>77506</v>
+        <v>73693</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,21 +813,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -837,10 +837,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>470463.1637531917</v>
+        <v>470498.0163710138</v>
       </c>
       <c r="R3" t="n">
-        <v>6922410.567864251</v>
+        <v>6922417.670698783</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -914,7 +914,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>100083020</v>
+        <v>100083018</v>
       </c>
       <c r="B4" t="n">
         <v>77506</v>
@@ -954,10 +954,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>470032.0470633581</v>
+        <v>470463.1637531917</v>
       </c>
       <c r="R4" t="n">
-        <v>6922493.153876506</v>
+        <v>6922410.567864251</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>

--- a/artfynd/A 10133-2023.xlsx
+++ b/artfynd/A 10133-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>100083020</v>
+        <v>100083016</v>
       </c>
       <c r="B2" t="n">
-        <v>77506</v>
+        <v>73693</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,21 +696,21 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -720,10 +720,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>470032.0470633581</v>
+        <v>470498.0163710138</v>
       </c>
       <c r="R2" t="n">
-        <v>6922493.153876506</v>
+        <v>6922417.670698783</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -797,10 +797,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>100083016</v>
+        <v>100083018</v>
       </c>
       <c r="B3" t="n">
-        <v>73693</v>
+        <v>77506</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -813,21 +813,21 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
@@ -837,10 +837,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>470498.0163710138</v>
+        <v>470463.1637531917</v>
       </c>
       <c r="R3" t="n">
-        <v>6922417.670698783</v>
+        <v>6922410.567864251</v>
       </c>
       <c r="S3" t="n">
         <v>5</v>
@@ -914,7 +914,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>100083018</v>
+        <v>100083020</v>
       </c>
       <c r="B4" t="n">
         <v>77506</v>
@@ -954,10 +954,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>470463.1637531917</v>
+        <v>470032.0470633581</v>
       </c>
       <c r="R4" t="n">
-        <v>6922410.567864251</v>
+        <v>6922493.153876506</v>
       </c>
       <c r="S4" t="n">
         <v>5</v>
